--- a/inst/shiny-examples/MassIBItools/Examples/MA_kickIBI_latlongs_20200908.xlsx
+++ b/inst/shiny-examples/MassIBItools/Examples/MA_kickIBI_latlongs_20200908.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\MassIBItools\inst\shiny-examples\MassIBItools\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E9407440-B6C8-4622-90CC-FE590EFF9867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA65B7B3-1608-4F8F-8663-5D2874088842}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E9407440-B6C8-4622-90CC-FE590EFF9867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{074777F7-2904-40AC-8151-89478E219A73}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D8260BA4-7A30-4705-81E5-8F2CF1E64507}"/>
   </bookViews>
@@ -4426,7 +4426,7 @@
   <dimension ref="A1:M646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inst/shiny-examples/MassIBItools/Examples/MA_kickIBI_latlongs_20200908.xlsx
+++ b/inst/shiny-examples/MassIBItools/Examples/MA_kickIBI_latlongs_20200908.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\MassIBItools\inst\shiny-examples\MassIBItools\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E9407440-B6C8-4622-90CC-FE590EFF9867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E31B8D1B-F890-425A-AB2A-E7BB604F26A4}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{E9407440-B6C8-4622-90CC-FE590EFF9867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0101E1F5-3921-432E-A891-C08E2759AEA8}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D8260BA4-7A30-4705-81E5-8F2CF1E64507}"/>
   </bookViews>
@@ -4430,11 +4430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FA4C59-460C-4AB2-A646-9080DA34BEA3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,7 +4495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -4537,7 +4536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -4578,7 +4577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -4742,7 +4741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -5234,7 +5233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -5398,7 +5397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -5603,7 +5602,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
@@ -6218,7 +6217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
@@ -6300,7 +6299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
@@ -6423,7 +6422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
@@ -6464,7 +6463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>12</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
@@ -6792,7 +6791,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>12</v>
       </c>
@@ -6833,7 +6832,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>12</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
@@ -6956,7 +6955,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>12</v>
       </c>
@@ -6997,7 +6996,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
@@ -7038,7 +7037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>12</v>
       </c>
@@ -7079,7 +7078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>12</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
@@ -7161,7 +7160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>12</v>
       </c>
@@ -7202,7 +7201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>12</v>
       </c>
@@ -7243,7 +7242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>12</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>12</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>12</v>
       </c>
@@ -7366,7 +7365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>12</v>
       </c>
@@ -7407,7 +7406,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>12</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>12</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>12</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
@@ -7612,7 +7611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>12</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>12</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>12</v>
       </c>
@@ -7735,7 +7734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>12</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>12</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>12</v>
       </c>
@@ -7899,7 +7898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>12</v>
       </c>
@@ -7940,7 +7939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>12</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>12</v>
       </c>
@@ -8022,7 +8021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>12</v>
       </c>
@@ -8063,7 +8062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
@@ -8104,7 +8103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>12</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>12</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>12</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>12</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>12</v>
       </c>
@@ -8350,7 +8349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>12</v>
       </c>
@@ -8391,7 +8390,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>12</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>12</v>
       </c>
@@ -8473,7 +8472,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>12</v>
       </c>
@@ -8514,7 +8513,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>12</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
@@ -8596,7 +8595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>12</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>12</v>
       </c>
@@ -8719,7 +8718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
@@ -8760,7 +8759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>12</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>12</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
@@ -8883,7 +8882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>12</v>
       </c>
@@ -8924,7 +8923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>12</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>12</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>12</v>
       </c>
@@ -9047,7 +9046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>12</v>
       </c>
@@ -9088,7 +9087,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>12</v>
       </c>
@@ -9129,7 +9128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
@@ -9170,7 +9169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>12</v>
       </c>
@@ -9211,7 +9210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
@@ -9252,7 +9251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>12</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>12</v>
       </c>
@@ -9375,7 +9374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>12</v>
       </c>
@@ -9416,7 +9415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>12</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>12</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>12</v>
       </c>
@@ -9539,7 +9538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>12</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -9621,7 +9620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>12</v>
       </c>
@@ -9662,7 +9661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>12</v>
       </c>
@@ -9703,7 +9702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>12</v>
       </c>
@@ -9744,7 +9743,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>12</v>
       </c>
@@ -9785,7 +9784,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>12</v>
       </c>
@@ -9826,7 +9825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>12</v>
       </c>
@@ -9867,7 +9866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>12</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
@@ -9949,7 +9948,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>12</v>
       </c>
@@ -9990,7 +9989,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>12</v>
       </c>
@@ -10031,7 +10030,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>12</v>
       </c>
@@ -10072,7 +10071,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>12</v>
       </c>
@@ -10113,7 +10112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>12</v>
       </c>
@@ -10154,7 +10153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>12</v>
       </c>
@@ -10195,7 +10194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>12</v>
       </c>
@@ -10236,7 +10235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>12</v>
       </c>
@@ -10277,7 +10276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>12</v>
       </c>
@@ -10318,7 +10317,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>12</v>
       </c>
@@ -10359,7 +10358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>12</v>
       </c>
@@ -10400,7 +10399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>12</v>
       </c>
@@ -10441,7 +10440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>12</v>
       </c>
@@ -10482,7 +10481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>12</v>
       </c>
@@ -10523,7 +10522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>12</v>
       </c>
@@ -10564,7 +10563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>12</v>
       </c>
@@ -10605,7 +10604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>12</v>
       </c>
@@ -10646,7 +10645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>12</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>12</v>
       </c>
@@ -10728,7 +10727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>12</v>
       </c>
@@ -10769,7 +10768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>12</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>12</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>12</v>
       </c>
@@ -10892,7 +10891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>12</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>12</v>
       </c>
@@ -10974,7 +10973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
@@ -11015,7 +11014,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>12</v>
       </c>
@@ -11056,7 +11055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>12</v>
       </c>
@@ -11097,7 +11096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>12</v>
       </c>
@@ -11138,7 +11137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>12</v>
       </c>
@@ -11179,7 +11178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>12</v>
       </c>
@@ -11220,7 +11219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>12</v>
       </c>
@@ -11261,7 +11260,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>12</v>
       </c>
@@ -11302,7 +11301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>12</v>
       </c>
@@ -11343,7 +11342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>12</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>12</v>
       </c>
@@ -11425,7 +11424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>12</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>12</v>
       </c>
@@ -11507,7 +11506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>12</v>
       </c>
@@ -11548,7 +11547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>12</v>
       </c>
@@ -11589,7 +11588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>12</v>
       </c>
@@ -11630,7 +11629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>12</v>
       </c>
@@ -11671,7 +11670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>12</v>
       </c>
@@ -11712,7 +11711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>12</v>
       </c>
@@ -11753,7 +11752,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>12</v>
       </c>
@@ -11794,7 +11793,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>12</v>
       </c>
@@ -11835,7 +11834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>12</v>
       </c>
@@ -11876,7 +11875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>12</v>
       </c>
@@ -11917,7 +11916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>12</v>
       </c>
@@ -11958,7 +11957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>12</v>
       </c>
@@ -11999,7 +11998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>12</v>
       </c>
@@ -12040,7 +12039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
@@ -12081,7 +12080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>12</v>
       </c>
@@ -12122,7 +12121,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>12</v>
       </c>
@@ -12163,7 +12162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>12</v>
       </c>
@@ -12204,7 +12203,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>12</v>
       </c>
@@ -12245,7 +12244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>12</v>
       </c>
@@ -12286,7 +12285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>12</v>
       </c>
@@ -12327,7 +12326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>12</v>
       </c>
@@ -12368,7 +12367,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>12</v>
       </c>
@@ -12409,7 +12408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>12</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>12</v>
       </c>
@@ -12491,7 +12490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>12</v>
       </c>
@@ -12532,7 +12531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>12</v>
       </c>
@@ -12573,7 +12572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>12</v>
       </c>
@@ -12614,7 +12613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>12</v>
       </c>
@@ -12655,7 +12654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>12</v>
       </c>
@@ -12696,7 +12695,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>12</v>
       </c>
@@ -12737,7 +12736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>12</v>
       </c>
@@ -12778,7 +12777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>12</v>
       </c>
@@ -12819,7 +12818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>12</v>
       </c>
@@ -12860,7 +12859,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>12</v>
       </c>
@@ -12901,7 +12900,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>12</v>
       </c>
@@ -12942,7 +12941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>12</v>
       </c>
@@ -12983,7 +12982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>12</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>12</v>
       </c>
@@ -13065,7 +13064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>12</v>
       </c>
@@ -13106,7 +13105,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
@@ -13147,7 +13146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>12</v>
       </c>
@@ -13188,7 +13187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>12</v>
       </c>
@@ -13229,7 +13228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>12</v>
       </c>
@@ -13270,7 +13269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>12</v>
       </c>
@@ -13311,7 +13310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>12</v>
       </c>
@@ -13352,7 +13351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>12</v>
       </c>
@@ -13393,7 +13392,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>12</v>
       </c>
@@ -13434,7 +13433,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>12</v>
       </c>
@@ -13475,7 +13474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>12</v>
       </c>
@@ -13516,7 +13515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>12</v>
       </c>
@@ -13557,7 +13556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>12</v>
       </c>
@@ -13598,7 +13597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>12</v>
       </c>
@@ -13639,7 +13638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>12</v>
       </c>
@@ -13680,7 +13679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>12</v>
       </c>
@@ -13721,7 +13720,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>12</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>12</v>
       </c>
@@ -13803,7 +13802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>12</v>
       </c>
@@ -13844,7 +13843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>12</v>
       </c>
@@ -13885,7 +13884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>12</v>
       </c>
@@ -13926,7 +13925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>12</v>
       </c>
@@ -13967,7 +13966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>12</v>
       </c>
@@ -14008,7 +14007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>12</v>
       </c>
@@ -14049,7 +14048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>12</v>
       </c>
@@ -14090,7 +14089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>12</v>
       </c>
@@ -14131,7 +14130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>12</v>
       </c>
@@ -14172,7 +14171,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
@@ -14213,7 +14212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>12</v>
       </c>
@@ -14254,7 +14253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>12</v>
       </c>
@@ -14295,7 +14294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>12</v>
       </c>
@@ -14336,7 +14335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>12</v>
       </c>
@@ -14377,7 +14376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>12</v>
       </c>
@@ -14418,7 +14417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>12</v>
       </c>
@@ -14459,7 +14458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>12</v>
       </c>
@@ -14500,7 +14499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>12</v>
       </c>
@@ -14541,7 +14540,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>12</v>
       </c>
@@ -14582,7 +14581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>12</v>
       </c>
@@ -14623,7 +14622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>12</v>
       </c>
@@ -14664,7 +14663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>12</v>
       </c>
@@ -14705,7 +14704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>12</v>
       </c>
@@ -14746,7 +14745,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>12</v>
       </c>
@@ -14787,7 +14786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>12</v>
       </c>
@@ -14828,7 +14827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>12</v>
       </c>
@@ -14869,7 +14868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>12</v>
       </c>
@@ -14910,7 +14909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>12</v>
       </c>
@@ -14951,7 +14950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>12</v>
       </c>
@@ -14992,7 +14991,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>12</v>
       </c>
@@ -15033,7 +15032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>12</v>
       </c>
@@ -15074,7 +15073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>12</v>
       </c>
@@ -15115,7 +15114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>12</v>
       </c>
@@ -15156,7 +15155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>12</v>
       </c>
@@ -15197,7 +15196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>12</v>
       </c>
@@ -15238,7 +15237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
@@ -15279,7 +15278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>12</v>
       </c>
@@ -15320,7 +15319,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>12</v>
       </c>
@@ -15361,7 +15360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>12</v>
       </c>
@@ -15402,7 +15401,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>12</v>
       </c>
@@ -15443,7 +15442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>12</v>
       </c>
@@ -15484,7 +15483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>12</v>
       </c>
@@ -15525,7 +15524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>12</v>
       </c>
@@ -15566,7 +15565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>12</v>
       </c>
@@ -15607,7 +15606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>12</v>
       </c>
@@ -15648,7 +15647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>12</v>
       </c>
@@ -15689,7 +15688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>12</v>
       </c>
@@ -15730,7 +15729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>12</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>12</v>
       </c>
@@ -15812,7 +15811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>12</v>
       </c>
@@ -15853,7 +15852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>12</v>
       </c>
@@ -15894,7 +15893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>12</v>
       </c>
@@ -15935,7 +15934,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>12</v>
       </c>
@@ -15976,7 +15975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>12</v>
       </c>
@@ -16017,7 +16016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>12</v>
       </c>
@@ -16058,7 +16057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>12</v>
       </c>
@@ -16099,7 +16098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>12</v>
       </c>
@@ -16140,7 +16139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>12</v>
       </c>
@@ -16181,7 +16180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>12</v>
       </c>
@@ -16222,7 +16221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>12</v>
       </c>
@@ -16263,7 +16262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>12</v>
       </c>
@@ -16304,7 +16303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
@@ -16345,7 +16344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>12</v>
       </c>
@@ -16386,7 +16385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>12</v>
       </c>
@@ -16427,7 +16426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>12</v>
       </c>
@@ -16468,7 +16467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>12</v>
       </c>
@@ -16509,7 +16508,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>12</v>
       </c>
@@ -16550,7 +16549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>12</v>
       </c>
@@ -16591,7 +16590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>12</v>
       </c>
@@ -16632,7 +16631,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>12</v>
       </c>
@@ -16673,7 +16672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>12</v>
       </c>
@@ -16714,7 +16713,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>12</v>
       </c>
@@ -16755,7 +16754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>12</v>
       </c>
@@ -16796,7 +16795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>12</v>
       </c>
@@ -16837,7 +16836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>12</v>
       </c>
@@ -16878,7 +16877,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>12</v>
       </c>
@@ -16919,7 +16918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>12</v>
       </c>
@@ -16960,7 +16959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>12</v>
       </c>
@@ -17001,7 +17000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>12</v>
       </c>
@@ -17042,7 +17041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>12</v>
       </c>
@@ -17083,7 +17082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>12</v>
       </c>
@@ -17124,7 +17123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>12</v>
       </c>
@@ -17165,7 +17164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>12</v>
       </c>
@@ -17206,7 +17205,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>12</v>
       </c>
@@ -17247,7 +17246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>12</v>
       </c>
@@ -17288,7 +17287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>12</v>
       </c>
@@ -17329,7 +17328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>12</v>
       </c>
@@ -17370,7 +17369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
@@ -17411,7 +17410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>12</v>
       </c>
@@ -17452,7 +17451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>12</v>
       </c>
@@ -17493,7 +17492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>12</v>
       </c>
@@ -17534,7 +17533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>12</v>
       </c>
@@ -17575,7 +17574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>12</v>
       </c>
@@ -17616,7 +17615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>12</v>
       </c>
@@ -17657,7 +17656,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>12</v>
       </c>
@@ -17698,7 +17697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>12</v>
       </c>
@@ -17739,7 +17738,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>12</v>
       </c>
@@ -17780,7 +17779,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>12</v>
       </c>
@@ -17821,7 +17820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>12</v>
       </c>
@@ -17862,7 +17861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>12</v>
       </c>
@@ -17903,7 +17902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>12</v>
       </c>
@@ -17944,7 +17943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>12</v>
       </c>
@@ -17985,7 +17984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>12</v>
       </c>
@@ -18026,7 +18025,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>12</v>
       </c>
@@ -18067,7 +18066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>12</v>
       </c>
@@ -18108,7 +18107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>12</v>
       </c>
@@ -18149,7 +18148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>12</v>
       </c>
@@ -18190,7 +18189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>12</v>
       </c>
@@ -18231,7 +18230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>12</v>
       </c>
@@ -18272,7 +18271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>12</v>
       </c>
@@ -18313,7 +18312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>12</v>
       </c>
@@ -18354,7 +18353,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>12</v>
       </c>
@@ -18395,7 +18394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>12</v>
       </c>
@@ -18436,7 +18435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
@@ -18477,7 +18476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>12</v>
       </c>
@@ -18518,7 +18517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>12</v>
       </c>
@@ -18559,7 +18558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>12</v>
       </c>
@@ -18600,7 +18599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>12</v>
       </c>
@@ -18641,7 +18640,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>12</v>
       </c>
@@ -18682,7 +18681,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>12</v>
       </c>
@@ -18723,7 +18722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>12</v>
       </c>
@@ -18764,7 +18763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>12</v>
       </c>
@@ -18805,7 +18804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>12</v>
       </c>
@@ -18846,7 +18845,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>12</v>
       </c>
@@ -18887,7 +18886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>12</v>
       </c>
@@ -18928,7 +18927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>12</v>
       </c>
@@ -18969,7 +18968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>12</v>
       </c>
@@ -19010,7 +19009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>12</v>
       </c>
@@ -19051,7 +19050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>12</v>
       </c>
@@ -19092,7 +19091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>12</v>
       </c>
@@ -19133,7 +19132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>12</v>
       </c>
@@ -19174,7 +19173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>12</v>
       </c>
@@ -19215,7 +19214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>12</v>
       </c>
@@ -19256,7 +19255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>12</v>
       </c>
@@ -19297,7 +19296,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>12</v>
       </c>
@@ -19338,7 +19337,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>12</v>
       </c>
@@ -19379,7 +19378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>12</v>
       </c>
@@ -19420,7 +19419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>12</v>
       </c>
@@ -19461,7 +19460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>12</v>
       </c>
@@ -19502,7 +19501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
@@ -19543,7 +19542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>12</v>
       </c>
@@ -19584,7 +19583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>12</v>
       </c>
@@ -19625,7 +19624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>12</v>
       </c>
@@ -19666,7 +19665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>12</v>
       </c>
@@ -19707,7 +19706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>12</v>
       </c>
@@ -19748,7 +19747,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>12</v>
       </c>
@@ -19789,7 +19788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>12</v>
       </c>
@@ -19830,7 +19829,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>12</v>
       </c>
@@ -19871,7 +19870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>12</v>
       </c>
@@ -19912,7 +19911,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>12</v>
       </c>
@@ -19953,7 +19952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>12</v>
       </c>
@@ -19994,7 +19993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>12</v>
       </c>
@@ -20035,7 +20034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>12</v>
       </c>
@@ -20076,7 +20075,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>12</v>
       </c>
@@ -20117,7 +20116,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>12</v>
       </c>
@@ -20158,7 +20157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>12</v>
       </c>
@@ -20199,7 +20198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>12</v>
       </c>
@@ -20240,7 +20239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>12</v>
       </c>
@@ -20281,7 +20280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>12</v>
       </c>
@@ -20322,7 +20321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>12</v>
       </c>
@@ -20363,7 +20362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>12</v>
       </c>
@@ -20404,7 +20403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>12</v>
       </c>
@@ -20445,7 +20444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>12</v>
       </c>
@@ -20486,7 +20485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>12</v>
       </c>
@@ -20527,7 +20526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>12</v>
       </c>
@@ -20568,7 +20567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
@@ -20609,7 +20608,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>12</v>
       </c>
@@ -20650,7 +20649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>12</v>
       </c>
@@ -20691,7 +20690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>12</v>
       </c>
@@ -20732,7 +20731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>12</v>
       </c>
@@ -20773,7 +20772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>12</v>
       </c>
@@ -20814,7 +20813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>12</v>
       </c>
@@ -20855,7 +20854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>12</v>
       </c>
@@ -20896,7 +20895,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>12</v>
       </c>
@@ -20937,7 +20936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="403" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>12</v>
       </c>
@@ -20978,7 +20977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>12</v>
       </c>
@@ -21019,7 +21018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="405" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>12</v>
       </c>
@@ -21060,7 +21059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="406" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>12</v>
       </c>
@@ -21101,7 +21100,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>12</v>
       </c>
@@ -21142,7 +21141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="408" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>12</v>
       </c>
@@ -21183,7 +21182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>12</v>
       </c>
@@ -21224,7 +21223,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>12</v>
       </c>
@@ -21265,7 +21264,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="411" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>12</v>
       </c>
@@ -21306,7 +21305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>12</v>
       </c>
@@ -21347,7 +21346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>12</v>
       </c>
@@ -21388,7 +21387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="414" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>12</v>
       </c>
@@ -21429,7 +21428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>12</v>
       </c>
@@ -21470,7 +21469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="416" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>12</v>
       </c>
@@ -21511,7 +21510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>12</v>
       </c>
@@ -21552,7 +21551,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="418" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>12</v>
       </c>
@@ -21593,7 +21592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="419" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>12</v>
       </c>
@@ -21634,7 +21633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="420" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
@@ -21675,7 +21674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>12</v>
       </c>
@@ -21716,7 +21715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="422" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>12</v>
       </c>
@@ -21757,7 +21756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="423" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>12</v>
       </c>
@@ -21798,7 +21797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="424" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>12</v>
       </c>
@@ -21839,7 +21838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="425" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>12</v>
       </c>
@@ -21880,7 +21879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="426" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>12</v>
       </c>
@@ -21921,7 +21920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="427" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>12</v>
       </c>
@@ -21962,7 +21961,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="428" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>12</v>
       </c>
@@ -22003,7 +22002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="429" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>12</v>
       </c>
@@ -22044,7 +22043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="430" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>12</v>
       </c>
@@ -22085,7 +22084,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="431" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>12</v>
       </c>
@@ -22126,7 +22125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>12</v>
       </c>
@@ -22167,7 +22166,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="433" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>12</v>
       </c>
@@ -22208,7 +22207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="434" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>12</v>
       </c>
@@ -22249,7 +22248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="435" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>12</v>
       </c>
@@ -22290,7 +22289,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="436" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>12</v>
       </c>
@@ -22331,7 +22330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>12</v>
       </c>
@@ -22372,7 +22371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>12</v>
       </c>
@@ -22413,7 +22412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>12</v>
       </c>
@@ -22454,7 +22453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>12</v>
       </c>
@@ -22495,7 +22494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>12</v>
       </c>
@@ -22536,7 +22535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>12</v>
       </c>
@@ -22577,7 +22576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>12</v>
       </c>
@@ -22618,7 +22617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="444" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>12</v>
       </c>
@@ -22659,7 +22658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="445" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>12</v>
       </c>
@@ -22700,7 +22699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>12</v>
       </c>
@@ -22741,7 +22740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="447" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>12</v>
       </c>
@@ -22782,7 +22781,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="448" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>12</v>
       </c>
@@ -22823,7 +22822,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>12</v>
       </c>
@@ -22864,7 +22863,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="450" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>12</v>
       </c>
@@ -22905,7 +22904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="451" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>12</v>
       </c>
@@ -22946,7 +22945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="452" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>12</v>
       </c>
@@ -22987,7 +22986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="453" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>12</v>
       </c>
@@ -23028,7 +23027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="454" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>12</v>
       </c>
@@ -23069,7 +23068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="455" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>12</v>
       </c>
@@ -23110,7 +23109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>12</v>
       </c>
@@ -23151,7 +23150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="457" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>12</v>
       </c>
@@ -23192,7 +23191,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="458" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>12</v>
       </c>
@@ -23233,7 +23232,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="459" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>12</v>
       </c>
@@ -23274,7 +23273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="460" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>12</v>
       </c>
@@ -23315,7 +23314,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="461" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>12</v>
       </c>
@@ -23356,7 +23355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="462" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>12</v>
       </c>
@@ -23397,7 +23396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="463" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>12</v>
       </c>
@@ -23438,7 +23437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>12</v>
       </c>
@@ -23479,7 +23478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="465" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>12</v>
       </c>
@@ -23520,7 +23519,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="466" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>12</v>
       </c>
@@ -23561,7 +23560,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="467" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>12</v>
       </c>
@@ -23602,7 +23601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="468" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>12</v>
       </c>
@@ -23643,7 +23642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>12</v>
       </c>
@@ -23684,7 +23683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="470" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>12</v>
       </c>
@@ -23725,7 +23724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>12</v>
       </c>
@@ -23766,7 +23765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>12</v>
       </c>
@@ -23807,7 +23806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>12</v>
       </c>
@@ -23848,7 +23847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="474" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>12</v>
       </c>
@@ -23889,7 +23888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>12</v>
       </c>
@@ -23930,7 +23929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="476" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>12</v>
       </c>
@@ -23971,7 +23970,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="477" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>12</v>
       </c>
@@ -24012,7 +24011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="478" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>12</v>
       </c>
@@ -24053,7 +24052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="479" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>12</v>
       </c>
@@ -24094,7 +24093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>12</v>
       </c>
@@ -24135,7 +24134,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="481" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>12</v>
       </c>
@@ -24176,7 +24175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>12</v>
       </c>
@@ -24217,7 +24216,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>12</v>
       </c>
@@ -24258,7 +24257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>12</v>
       </c>
@@ -24299,7 +24298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>12</v>
       </c>
@@ -24340,7 +24339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>12</v>
       </c>
@@ -24381,7 +24380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>12</v>
       </c>
@@ -24422,7 +24421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>12</v>
       </c>
@@ -24463,7 +24462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>12</v>
       </c>
@@ -24504,7 +24503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>12</v>
       </c>
@@ -24545,7 +24544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="491" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>12</v>
       </c>
@@ -24586,7 +24585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="492" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>12</v>
       </c>
@@ -24627,7 +24626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="493" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>12</v>
       </c>
@@ -24668,7 +24667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>12</v>
       </c>
@@ -24709,7 +24708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="495" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>12</v>
       </c>
@@ -24750,7 +24749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>12</v>
       </c>
@@ -24791,7 +24790,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>12</v>
       </c>
@@ -24832,7 +24831,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="498" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>12</v>
       </c>
@@ -24873,7 +24872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>12</v>
       </c>
@@ -24914,7 +24913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="500" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>12</v>
       </c>
@@ -24955,7 +24954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="501" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>12</v>
       </c>
@@ -24996,7 +24995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="502" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>12</v>
       </c>
@@ -25037,7 +25036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="503" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>12</v>
       </c>
@@ -25078,7 +25077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="504" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>12</v>
       </c>
@@ -25119,7 +25118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="505" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>12</v>
       </c>
@@ -25160,7 +25159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="506" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>12</v>
       </c>
@@ -25201,7 +25200,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="507" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>12</v>
       </c>
@@ -25242,7 +25241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="508" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>12</v>
       </c>
@@ -25283,7 +25282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="509" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>12</v>
       </c>
@@ -25324,7 +25323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="510" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>12</v>
       </c>
@@ -25365,7 +25364,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="511" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>12</v>
       </c>
@@ -25406,7 +25405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="512" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>12</v>
       </c>
@@ -25447,7 +25446,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="513" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>12</v>
       </c>
@@ -25488,7 +25487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="514" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>12</v>
       </c>
@@ -25529,7 +25528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="515" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>12</v>
       </c>
@@ -25570,7 +25569,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="516" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>12</v>
       </c>
@@ -25611,7 +25610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="517" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>12</v>
       </c>
@@ -25652,7 +25651,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="518" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>12</v>
       </c>
@@ -25693,7 +25692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="519" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>12</v>
       </c>
@@ -25734,7 +25733,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="520" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>12</v>
       </c>
@@ -25775,7 +25774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="521" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>12</v>
       </c>
@@ -25816,7 +25815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="522" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>12</v>
       </c>
@@ -25857,7 +25856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="523" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>12</v>
       </c>
@@ -25898,7 +25897,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="524" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>12</v>
       </c>
@@ -25939,7 +25938,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="525" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>12</v>
       </c>
@@ -25980,7 +25979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="526" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>12</v>
       </c>
@@ -26021,7 +26020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="527" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>12</v>
       </c>
@@ -26062,7 +26061,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="528" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>12</v>
       </c>
@@ -26103,7 +26102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="529" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>12</v>
       </c>
@@ -26144,7 +26143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="530" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>12</v>
       </c>
@@ -26185,7 +26184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="531" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>12</v>
       </c>
@@ -26226,7 +26225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="532" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>12</v>
       </c>
@@ -26267,7 +26266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="533" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>12</v>
       </c>
@@ -26308,7 +26307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="534" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>12</v>
       </c>
@@ -26349,7 +26348,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="535" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>12</v>
       </c>
@@ -26390,7 +26389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="536" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>12</v>
       </c>
@@ -26431,7 +26430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="537" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>12</v>
       </c>
@@ -26472,7 +26471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>12</v>
       </c>
@@ -26513,7 +26512,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="539" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>12</v>
       </c>
@@ -26554,7 +26553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="540" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>12</v>
       </c>
@@ -26595,7 +26594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>12</v>
       </c>
@@ -26636,7 +26635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="542" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>12</v>
       </c>
@@ -26677,7 +26676,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="543" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>12</v>
       </c>
@@ -26718,7 +26717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>12</v>
       </c>
@@ -26759,7 +26758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="545" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>12</v>
       </c>
@@ -26800,7 +26799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="546" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>12</v>
       </c>
@@ -26841,7 +26840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="547" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>12</v>
       </c>
@@ -26882,7 +26881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>12</v>
       </c>
@@ -26923,7 +26922,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="549" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>12</v>
       </c>
@@ -26964,7 +26963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>12</v>
       </c>
@@ -27005,7 +27004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="551" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>12</v>
       </c>
@@ -27046,7 +27045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="552" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>12</v>
       </c>
@@ -27087,7 +27086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="553" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>12</v>
       </c>
@@ -27128,7 +27127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="554" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>12</v>
       </c>
@@ -27169,7 +27168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="555" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>12</v>
       </c>
@@ -27210,7 +27209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="556" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>12</v>
       </c>
@@ -27251,7 +27250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="557" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>12</v>
       </c>
@@ -27292,7 +27291,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="558" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>12</v>
       </c>
@@ -27333,7 +27332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="559" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>12</v>
       </c>
@@ -27374,7 +27373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="560" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>12</v>
       </c>
@@ -27415,7 +27414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="561" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>12</v>
       </c>
@@ -27456,7 +27455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="562" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>12</v>
       </c>
@@ -27497,7 +27496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="563" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>12</v>
       </c>
@@ -27538,7 +27537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="564" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>12</v>
       </c>
@@ -27579,7 +27578,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="565" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
         <v>12</v>
       </c>
@@ -27620,7 +27619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="566" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>12</v>
       </c>
@@ -27661,7 +27660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="567" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
         <v>12</v>
       </c>
@@ -27702,7 +27701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>12</v>
       </c>
@@ -27743,7 +27742,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>12</v>
       </c>
@@ -27784,7 +27783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="570" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>12</v>
       </c>
@@ -27825,7 +27824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>12</v>
       </c>
@@ -27866,7 +27865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="572" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>12</v>
       </c>
@@ -27907,7 +27906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="573" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>12</v>
       </c>
@@ -27948,7 +27947,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="574" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>12</v>
       </c>
@@ -27989,7 +27988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="575" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>12</v>
       </c>
@@ -28030,7 +28029,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="576" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>12</v>
       </c>
@@ -28071,7 +28070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>12</v>
       </c>
@@ -28112,7 +28111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="578" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
         <v>12</v>
       </c>
@@ -28153,7 +28152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="579" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
         <v>12</v>
       </c>
@@ -28194,7 +28193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="580" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
         <v>12</v>
       </c>
@@ -28235,7 +28234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="581" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
         <v>12</v>
       </c>
@@ -28276,7 +28275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="582" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
         <v>12</v>
       </c>
@@ -28317,7 +28316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="583" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>12</v>
       </c>
@@ -28358,7 +28357,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="584" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
         <v>12</v>
       </c>
@@ -28399,7 +28398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="585" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>12</v>
       </c>
@@ -28440,7 +28439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="586" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
         <v>12</v>
       </c>
@@ -28481,7 +28480,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="587" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
         <v>12</v>
       </c>
@@ -28522,7 +28521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="588" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
         <v>12</v>
       </c>
@@ -28563,7 +28562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="589" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
         <v>12</v>
       </c>
@@ -28604,7 +28603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="590" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
         <v>12</v>
       </c>
@@ -28645,7 +28644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="591" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
         <v>12</v>
       </c>
@@ -28686,7 +28685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="592" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
         <v>12</v>
       </c>
@@ -28727,7 +28726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="593" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
         <v>12</v>
       </c>
@@ -28768,7 +28767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="594" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
         <v>12</v>
       </c>
@@ -28809,7 +28808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="595" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>12</v>
       </c>
@@ -28850,7 +28849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="596" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
         <v>12</v>
       </c>
@@ -28891,7 +28890,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="597" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>12</v>
       </c>
@@ -28932,7 +28931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="598" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
         <v>12</v>
       </c>
@@ -28973,7 +28972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="599" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
         <v>12</v>
       </c>
@@ -29014,7 +29013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="600" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>12</v>
       </c>
@@ -29055,7 +29054,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="601" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>12</v>
       </c>
@@ -29096,7 +29095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="602" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>12</v>
       </c>
@@ -29137,7 +29136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="603" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>12</v>
       </c>
@@ -29178,7 +29177,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="604" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>12</v>
       </c>
@@ -29219,7 +29218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="605" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>12</v>
       </c>
@@ -29260,7 +29259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="606" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
         <v>12</v>
       </c>
@@ -29301,7 +29300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="607" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>12</v>
       </c>
@@ -29342,7 +29341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="608" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>12</v>
       </c>
@@ -29383,7 +29382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="609" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>12</v>
       </c>
@@ -29424,7 +29423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="610" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
         <v>12</v>
       </c>
@@ -29465,7 +29464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="611" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>12</v>
       </c>
@@ -29506,7 +29505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="612" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>12</v>
       </c>
@@ -29547,7 +29546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="613" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
         <v>12</v>
       </c>
@@ -29588,7 +29587,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="614" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
         <v>12</v>
       </c>
@@ -29629,7 +29628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="615" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
         <v>12</v>
       </c>
@@ -29670,7 +29669,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="616" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
         <v>12</v>
       </c>
@@ -29711,7 +29710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="617" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
         <v>12</v>
       </c>
@@ -29752,7 +29751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="618" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
         <v>12</v>
       </c>
@@ -29793,7 +29792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="619" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
         <v>12</v>
       </c>
@@ -29834,7 +29833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="620" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>12</v>
       </c>
@@ -29875,7 +29874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="621" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>12</v>
       </c>
@@ -29916,7 +29915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="622" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
         <v>12</v>
       </c>
@@ -29957,7 +29956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="623" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>12</v>
       </c>
@@ -29998,7 +29997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="624" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
         <v>12</v>
       </c>
@@ -30039,7 +30038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="625" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
         <v>12</v>
       </c>
@@ -30080,7 +30079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="626" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>12</v>
       </c>
@@ -30121,7 +30120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="627" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
         <v>12</v>
       </c>
@@ -30162,7 +30161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="628" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>12</v>
       </c>
@@ -30203,7 +30202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="629" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
         <v>12</v>
       </c>
@@ -30244,7 +30243,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="630" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
         <v>12</v>
       </c>
@@ -30285,7 +30284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="631" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
         <v>12</v>
       </c>
@@ -30326,7 +30325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="632" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
         <v>12</v>
       </c>
@@ -30367,7 +30366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="633" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>12</v>
       </c>
@@ -30408,7 +30407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="634" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>12</v>
       </c>
@@ -30449,7 +30448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="635" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
         <v>12</v>
       </c>
@@ -30490,7 +30489,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="636" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
         <v>12</v>
       </c>
@@ -30531,7 +30530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="637" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
         <v>12</v>
       </c>
@@ -30572,7 +30571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="638" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
         <v>12</v>
       </c>
@@ -30613,7 +30612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="639" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
         <v>12</v>
       </c>
@@ -30654,7 +30653,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="640" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
         <v>12</v>
       </c>
@@ -30695,7 +30694,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="641" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
         <v>12</v>
       </c>
@@ -30736,7 +30735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="642" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
         <v>12</v>
       </c>
@@ -30777,7 +30776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="643" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
         <v>12</v>
       </c>
@@ -30818,7 +30817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="644" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
         <v>12</v>
       </c>
@@ -30859,7 +30858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="645" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
         <v>12</v>
       </c>
@@ -30900,7 +30899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="646" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
         <v>12</v>
       </c>
@@ -30942,13 +30941,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M646" xr:uid="{C0E11DF3-08CE-4B8B-9A33-CC490E6AD0AF}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="2007029.1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M646" xr:uid="{C0E11DF3-08CE-4B8B-9A33-CC490E6AD0AF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>